--- a/Burn down chart.xlsx
+++ b/Burn down chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\hanzla\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Documents\GitHub\E-Learning-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418AB89D-FC74-4949-8FAE-EA2C951EB680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ED85E3-B080-48D8-9993-FAE042D3DFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8316" yWindow="240" windowWidth="11448" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Days</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>howrs remaining(total-hors worked)</t>
+  </si>
+  <si>
+    <t>Predicted Days</t>
+  </si>
+  <si>
+    <t>complete in days</t>
+  </si>
+  <si>
+    <t>predicted points left</t>
+  </si>
+  <si>
+    <t>actual points left</t>
   </si>
 </sst>
 </file>
@@ -83,9 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,7 +716,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$5</c15:sqref>
@@ -875,7 +888,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-C4D6-4729-9568-0A125908BD1E}"/>
                   </c:ext>
@@ -1074,7 +1087,713 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burn down chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>predicted points left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$25:$T$26</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="19"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>24/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>26/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>28/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>29/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>30/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>01/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>02/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>03/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>04/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>05/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>06/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>07/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>08/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>09/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>10/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>11/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>12/05/2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>24/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>26/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>28/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>29/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>30/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>01/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>02/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>03/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>04/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>05/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>06/05/2022</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$T$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E4A-4FE6-81AF-931089A9A291}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>actual points left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$25:$T$26</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="19"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>24/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>26/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>28/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>29/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>30/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>01/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>02/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>03/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>04/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>05/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>06/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>07/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>08/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>09/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>10/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>11/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>12/05/2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>24/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>26/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>28/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>29/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>30/04/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>01/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>02/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>03/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>04/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>05/05/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>06/05/2022</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$T$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E4A-4FE6-81AF-931089A9A291}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1602989424"/>
+        <c:axId val="1602988592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1602989424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1602988592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1602988592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1602989424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1630,6 +2349,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1663,6 +2898,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BFBE775-E631-060D-EDF4-D36DA80502E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1934,15 +3205,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="22" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -2290,6 +3563,218 @@
         <v>1</v>
       </c>
       <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44675</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44676</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44677</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44678</v>
+      </c>
+      <c r="F25" s="2">
+        <v>44679</v>
+      </c>
+      <c r="G25" s="2">
+        <v>44680</v>
+      </c>
+      <c r="H25" s="2">
+        <v>44681</v>
+      </c>
+      <c r="I25" s="2">
+        <v>44682</v>
+      </c>
+      <c r="J25" s="2">
+        <v>44683</v>
+      </c>
+      <c r="K25" s="2">
+        <v>44684</v>
+      </c>
+      <c r="L25" s="2">
+        <v>44685</v>
+      </c>
+      <c r="M25" s="2">
+        <v>44686</v>
+      </c>
+      <c r="N25" s="2">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44675</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44676</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44677</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44678</v>
+      </c>
+      <c r="F26" s="2">
+        <v>44679</v>
+      </c>
+      <c r="G26" s="2">
+        <v>44680</v>
+      </c>
+      <c r="H26" s="2">
+        <v>44681</v>
+      </c>
+      <c r="I26" s="2">
+        <v>44682</v>
+      </c>
+      <c r="J26" s="2">
+        <v>44683</v>
+      </c>
+      <c r="K26" s="2">
+        <v>44684</v>
+      </c>
+      <c r="L26" s="2">
+        <v>44685</v>
+      </c>
+      <c r="M26" s="2">
+        <v>44686</v>
+      </c>
+      <c r="N26" s="2">
+        <v>44687</v>
+      </c>
+      <c r="O26" s="2">
+        <v>44688</v>
+      </c>
+      <c r="P26" s="2">
+        <v>44689</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>44690</v>
+      </c>
+      <c r="R26" s="2">
+        <v>44691</v>
+      </c>
+      <c r="S26" s="2">
+        <v>44692</v>
+      </c>
+      <c r="T26" s="2">
+        <v>44693</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>16</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <v>21</v>
+      </c>
+      <c r="G28">
+        <v>19</v>
+      </c>
+      <c r="H28">
+        <v>17</v>
+      </c>
+      <c r="I28">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>17</v>
+      </c>
+      <c r="K28">
+        <v>17</v>
+      </c>
+      <c r="L28">
+        <v>13</v>
+      </c>
+      <c r="M28">
+        <v>11</v>
+      </c>
+      <c r="N28">
+        <v>9</v>
+      </c>
+      <c r="O28">
+        <v>7</v>
+      </c>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
         <v>0</v>
       </c>
     </row>

--- a/Burn down chart.xlsx
+++ b/Burn down chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Documents\GitHub\E-Learning-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ED85E3-B080-48D8-9993-FAE042D3DFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE06AD62-753B-4009-810D-4B254A7282CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8316" yWindow="240" windowWidth="11448" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,13 +66,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,10 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3205,9 +3212,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -3778,8 +3785,12 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E32" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>